--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Icam2</t>
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H2">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I2">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J2">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N2">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O2">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P2">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q2">
-        <v>5.275591993410115</v>
+        <v>6.639455635891778</v>
       </c>
       <c r="R2">
-        <v>5.275591993410115</v>
+        <v>59.755100723026</v>
       </c>
       <c r="S2">
-        <v>0.003968993421833443</v>
+        <v>0.003164936048532501</v>
       </c>
       <c r="T2">
-        <v>0.003968993421833443</v>
+        <v>0.003181118523237973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H3">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I3">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J3">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N3">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P3">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q3">
-        <v>9.500345790731394</v>
+        <v>13.70658640956067</v>
       </c>
       <c r="R3">
-        <v>9.500345790731394</v>
+        <v>123.359277686046</v>
       </c>
       <c r="S3">
-        <v>0.007147408290037695</v>
+        <v>0.006533738879952252</v>
       </c>
       <c r="T3">
-        <v>0.007147408290037695</v>
+        <v>0.006567146210317115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H4">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I4">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J4">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N4">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O4">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P4">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q4">
-        <v>316.2565680331959</v>
+        <v>713.6715324598969</v>
       </c>
       <c r="R4">
-        <v>316.2565680331959</v>
+        <v>6423.043792139073</v>
       </c>
       <c r="S4">
-        <v>0.2379297412884288</v>
+        <v>0.3401972817897111</v>
       </c>
       <c r="T4">
-        <v>0.2379297412884288</v>
+        <v>0.3419367273339537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H5">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I5">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J5">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N5">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O5">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P5">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q5">
-        <v>737.3512311869429</v>
+        <v>907.3332074598811</v>
       </c>
       <c r="R5">
-        <v>737.3512311869429</v>
+        <v>8165.99886713893</v>
       </c>
       <c r="S5">
-        <v>0.5547324716955726</v>
+        <v>0.4325131055619578</v>
       </c>
       <c r="T5">
-        <v>0.5547324716955726</v>
+        <v>0.43472456648351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.2175042085639</v>
+        <v>37.78271433333333</v>
       </c>
       <c r="H6">
-        <v>34.2175042085639</v>
+        <v>113.348143</v>
       </c>
       <c r="I6">
-        <v>0.8078283798237483</v>
+        <v>0.7852424281394679</v>
       </c>
       <c r="J6">
-        <v>0.8078283798237483</v>
+        <v>0.7883081272171703</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N6">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O6">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P6">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q6">
-        <v>5.382953865905709</v>
+        <v>5.943882162134166</v>
       </c>
       <c r="R6">
-        <v>5.382953865905709</v>
+        <v>35.663292972805</v>
       </c>
       <c r="S6">
-        <v>0.004049765127875724</v>
+        <v>0.002833365859314307</v>
       </c>
       <c r="T6">
-        <v>0.004049765127875724</v>
+        <v>0.001898568666151309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H7">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J7">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N7">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O7">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P7">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q7">
-        <v>0.1580244271428689</v>
+        <v>0.2233461018473333</v>
       </c>
       <c r="R7">
-        <v>0.1580244271428689</v>
+        <v>2.010114916626</v>
       </c>
       <c r="S7">
-        <v>0.0001188867358587424</v>
+        <v>0.0001064659767006475</v>
       </c>
       <c r="T7">
-        <v>0.0001188867358587424</v>
+        <v>0.0001070103425104244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H8">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J8">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N8">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P8">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q8">
-        <v>0.2845721775138775</v>
+        <v>0.4610788612939999</v>
       </c>
       <c r="R8">
-        <v>0.2845721775138775</v>
+        <v>4.149709751646</v>
       </c>
       <c r="S8">
-        <v>0.0002140925799417855</v>
+        <v>0.000219789872747556</v>
       </c>
       <c r="T8">
-        <v>0.0002140925799417855</v>
+        <v>0.0002209136692482485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H9">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I9">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J9">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N9">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O9">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P9">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q9">
-        <v>9.473109947858408</v>
+        <v>24.007352939097</v>
       </c>
       <c r="R9">
-        <v>9.473109947858408</v>
+        <v>216.066176451873</v>
       </c>
       <c r="S9">
-        <v>0.007126917910695242</v>
+        <v>0.01144397084846027</v>
       </c>
       <c r="T9">
-        <v>0.007126917910695242</v>
+        <v>0.01150248443797538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H10">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I10">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J10">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N10">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O10">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P10">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q10">
-        <v>22.08652717210758</v>
+        <v>30.52198042672566</v>
       </c>
       <c r="R10">
-        <v>22.08652717210758</v>
+        <v>274.697823840531</v>
       </c>
       <c r="S10">
-        <v>0.01661638753844889</v>
+        <v>0.01454940305692285</v>
       </c>
       <c r="T10">
-        <v>0.01661638753844889</v>
+        <v>0.01462379487506323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.02494686995721</v>
+        <v>1.270981</v>
       </c>
       <c r="H11">
-        <v>1.02494686995721</v>
+        <v>3.812943</v>
       </c>
       <c r="I11">
-        <v>0.0241975909264513</v>
+        <v>0.02641494196933943</v>
       </c>
       <c r="J11">
-        <v>0.0241975909264513</v>
+        <v>0.02651806969185035</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N11">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O11">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P11">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q11">
-        <v>0.1612403313332032</v>
+        <v>0.1999475534675</v>
       </c>
       <c r="R11">
-        <v>0.1612403313332032</v>
+        <v>1.199685320805</v>
       </c>
       <c r="S11">
-        <v>0.000121306161506637</v>
+        <v>9.531221450810599E-05</v>
       </c>
       <c r="T11">
-        <v>0.000121306161506637</v>
+        <v>6.386636705306211E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H12">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I12">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J12">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N12">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O12">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P12">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q12">
-        <v>0.3939189366862363</v>
+        <v>0.5605285459553335</v>
       </c>
       <c r="R12">
-        <v>0.3939189366862363</v>
+        <v>5.044756913598001</v>
       </c>
       <c r="S12">
-        <v>0.0002963575785231797</v>
+        <v>0.0002671961526085658</v>
       </c>
       <c r="T12">
-        <v>0.0002963575785231797</v>
+        <v>0.0002685623397651728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H13">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I13">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J13">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N13">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P13">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q13">
-        <v>0.7093736810411349</v>
+        <v>1.157163082562</v>
       </c>
       <c r="R13">
-        <v>0.7093736810411349</v>
+        <v>10.414467743058</v>
       </c>
       <c r="S13">
-        <v>0.0005336840826945972</v>
+        <v>0.0005516035281918947</v>
       </c>
       <c r="T13">
-        <v>0.0005336840826945972</v>
+        <v>0.0005544239043402703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H14">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I14">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J14">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N14">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O14">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P14">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q14">
-        <v>23.61430739058109</v>
+        <v>60.25091337563101</v>
       </c>
       <c r="R14">
-        <v>23.61430739058109</v>
+        <v>542.2582203806791</v>
       </c>
       <c r="S14">
-        <v>0.01776578454350595</v>
+        <v>0.0287207714241969</v>
       </c>
       <c r="T14">
-        <v>0.01776578454350595</v>
+        <v>0.02886762215039379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H15">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I15">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J15">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N15">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O15">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P15">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q15">
-        <v>55.05668621005281</v>
+        <v>76.60058163882367</v>
       </c>
       <c r="R15">
-        <v>55.05668621005281</v>
+        <v>689.405234749413</v>
       </c>
       <c r="S15">
-        <v>0.04142087289324239</v>
+        <v>0.03651443061938723</v>
       </c>
       <c r="T15">
-        <v>0.04142087289324239</v>
+        <v>0.03670113071089681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.55495930897067</v>
+        <v>3.189763000000001</v>
       </c>
       <c r="H16">
-        <v>2.55495930897067</v>
+        <v>9.569289000000001</v>
       </c>
       <c r="I16">
-        <v>0.06031908775406283</v>
+        <v>0.0662932054381191</v>
       </c>
       <c r="J16">
-        <v>0.06031908775406283</v>
+        <v>0.06655202362150626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N16">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O16">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P16">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q16">
-        <v>0.4019354540186865</v>
+        <v>0.5018055407525001</v>
       </c>
       <c r="R16">
-        <v>0.4019354540186865</v>
+        <v>3.010833244515001</v>
       </c>
       <c r="S16">
-        <v>0.0003023886560967018</v>
+        <v>0.0002392037137345245</v>
       </c>
       <c r="T16">
-        <v>0.0003023886560967018</v>
+        <v>0.0001602845161102146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.55998267169915</v>
+        <v>5.311165</v>
       </c>
       <c r="H17">
-        <v>4.55998267169915</v>
+        <v>15.933495</v>
       </c>
       <c r="I17">
-        <v>0.1076549414957373</v>
+        <v>0.1103825432989058</v>
       </c>
       <c r="J17">
-        <v>0.1076549414957373</v>
+        <v>0.1108134925816486</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N17">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O17">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P17">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q17">
-        <v>0.703049758576023</v>
+        <v>0.9333168623433334</v>
       </c>
       <c r="R17">
-        <v>0.703049758576023</v>
+        <v>8.399851761090002</v>
       </c>
       <c r="S17">
-        <v>0.0005289263973588917</v>
+        <v>0.0004448991520276814</v>
       </c>
       <c r="T17">
-        <v>0.0005289263973588917</v>
+        <v>0.00044717394341802</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.55998267169915</v>
+        <v>5.311165</v>
       </c>
       <c r="H18">
-        <v>4.55998267169915</v>
+        <v>15.933495</v>
       </c>
       <c r="I18">
-        <v>0.1076549414957373</v>
+        <v>0.1103825432989058</v>
       </c>
       <c r="J18">
-        <v>0.1076549414957373</v>
+        <v>0.1108134925816486</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N18">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P18">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q18">
-        <v>1.266059965005943</v>
+        <v>1.92675257171</v>
       </c>
       <c r="R18">
-        <v>1.266059965005943</v>
+        <v>17.34077314539</v>
       </c>
       <c r="S18">
-        <v>0.0009524966447428291</v>
+        <v>0.0009184561212884168</v>
       </c>
       <c r="T18">
-        <v>0.0009524966447428291</v>
+        <v>0.0009231522329073951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.55998267169915</v>
+        <v>5.311165</v>
       </c>
       <c r="H19">
-        <v>4.55998267169915</v>
+        <v>15.933495</v>
       </c>
       <c r="I19">
-        <v>0.1076549414957373</v>
+        <v>0.1103825432989058</v>
       </c>
       <c r="J19">
-        <v>0.1076549414957373</v>
+        <v>0.1108134925816486</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N19">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O19">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P19">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q19">
-        <v>42.14581113959458</v>
+        <v>100.321729965105</v>
       </c>
       <c r="R19">
-        <v>42.14581113959458</v>
+        <v>902.895569685945</v>
       </c>
       <c r="S19">
-        <v>0.03170761639259349</v>
+        <v>0.04782197171426049</v>
       </c>
       <c r="T19">
-        <v>0.03170761639259349</v>
+        <v>0.04806648782320073</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.55998267169915</v>
+        <v>5.311165</v>
       </c>
       <c r="H20">
-        <v>4.55998267169915</v>
+        <v>15.933495</v>
       </c>
       <c r="I20">
-        <v>0.1076549414957373</v>
+        <v>0.1103825432989058</v>
       </c>
       <c r="J20">
-        <v>0.1076549414957373</v>
+        <v>0.1108134925816486</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N20">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O20">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P20">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q20">
-        <v>98.26283111340949</v>
+        <v>127.5450019891016</v>
       </c>
       <c r="R20">
-        <v>98.26283111340949</v>
+        <v>1147.905017901915</v>
       </c>
       <c r="S20">
-        <v>0.07392621165302739</v>
+        <v>0.06079892640945981</v>
       </c>
       <c r="T20">
-        <v>0.07392621165302739</v>
+        <v>0.06110979433021833</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.55998267169915</v>
+        <v>5.311165</v>
       </c>
       <c r="H21">
-        <v>4.55998267169915</v>
+        <v>15.933495</v>
       </c>
       <c r="I21">
-        <v>0.1076549414957373</v>
+        <v>0.1103825432989058</v>
       </c>
       <c r="J21">
-        <v>0.1076549414957373</v>
+        <v>0.1108134925816486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N21">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O21">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P21">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q21">
-        <v>0.7173572976413227</v>
+        <v>0.8355391998875</v>
       </c>
       <c r="R21">
-        <v>0.7173572976413227</v>
+        <v>5.013235199325</v>
       </c>
       <c r="S21">
-        <v>0.0005396904080147068</v>
+        <v>0.0003982899018694573</v>
       </c>
       <c r="T21">
-        <v>0.0005396904080147068</v>
+        <v>0.0002668842519041407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5613635</v>
+      </c>
+      <c r="H22">
+        <v>1.122727</v>
+      </c>
+      <c r="I22">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J22">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1757273333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.527182</v>
+      </c>
+      <c r="O22">
+        <v>0.00403052093865001</v>
+      </c>
+      <c r="P22">
+        <v>0.004035374510811824</v>
+      </c>
+      <c r="Q22">
+        <v>0.09864691088566668</v>
+      </c>
+      <c r="R22">
+        <v>0.5918814653140001</v>
+      </c>
+      <c r="S22">
+        <v>4.702360878061429E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.150936188023301E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5613635</v>
+      </c>
+      <c r="H23">
+        <v>1.122727</v>
+      </c>
+      <c r="I23">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J23">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.362774</v>
+      </c>
+      <c r="N23">
+        <v>1.088322</v>
+      </c>
+      <c r="O23">
+        <v>0.008320664607276909</v>
+      </c>
+      <c r="P23">
+        <v>0.008330684390506021</v>
+      </c>
+      <c r="Q23">
+        <v>0.203648082349</v>
+      </c>
+      <c r="R23">
+        <v>1.221888494094</v>
+      </c>
+      <c r="S23">
+        <v>9.707620509678953E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.504837369299208E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5613635</v>
+      </c>
+      <c r="H24">
+        <v>1.122727</v>
+      </c>
+      <c r="I24">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J24">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.888837</v>
+      </c>
+      <c r="N24">
+        <v>56.666511</v>
+      </c>
+      <c r="O24">
+        <v>0.4332385383145499</v>
+      </c>
+      <c r="P24">
+        <v>0.4337602461882952</v>
+      </c>
+      <c r="Q24">
+        <v>10.6035036492495</v>
+      </c>
+      <c r="R24">
+        <v>63.621021895497</v>
+      </c>
+      <c r="S24">
+        <v>0.005054542537921204</v>
+      </c>
+      <c r="T24">
+        <v>0.003386924442771576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5613635</v>
+      </c>
+      <c r="H25">
+        <v>1.122727</v>
+      </c>
+      <c r="I25">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J25">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.01450566666666</v>
+      </c>
+      <c r="N25">
+        <v>72.04351699999999</v>
+      </c>
+      <c r="O25">
+        <v>0.5508020072052686</v>
+      </c>
+      <c r="P25">
+        <v>0.5514652855580013</v>
+      </c>
+      <c r="Q25">
+        <v>13.48086695180983</v>
+      </c>
+      <c r="R25">
+        <v>80.88520171085899</v>
+      </c>
+      <c r="S25">
+        <v>0.006426141557540915</v>
+      </c>
+      <c r="T25">
+        <v>0.004305999158312914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5613635</v>
+      </c>
+      <c r="H26">
+        <v>1.122727</v>
+      </c>
+      <c r="I26">
+        <v>0.01166688115416775</v>
+      </c>
+      <c r="J26">
+        <v>0.007808286887824462</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1573175</v>
+      </c>
+      <c r="N26">
+        <v>0.314635</v>
+      </c>
+      <c r="O26">
+        <v>0.003608268934254619</v>
+      </c>
+      <c r="P26">
+        <v>0.002408409352385472</v>
+      </c>
+      <c r="Q26">
+        <v>0.08831230241125</v>
+      </c>
+      <c r="R26">
+        <v>0.353249209645</v>
+      </c>
+      <c r="S26">
+        <v>4.209724482822415E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.880555116674529E-05</v>
       </c>
     </row>
   </sheetData>
